--- a/Source/Excel/prop.xlsx
+++ b/Source/Excel/prop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Game\Source\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38935393-ED2F-4C55-9C64-11AA233F1E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BC2EB-B97C-4DA1-A921-D8BD402B204A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>衬衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,30 +203,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -230,23 +241,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,17 +556,23 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,9 +598,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -601,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -627,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -653,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>50</v>
@@ -679,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -705,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -731,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -757,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -783,7 +817,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -809,7 +843,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -835,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -861,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -887,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -913,7 +947,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -939,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -965,7 +999,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -991,7 +1025,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1017,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1043,7 +1077,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1069,7 +1103,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1095,7 +1129,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1121,7 +1155,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1147,7 +1181,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1165,6 +1199,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/Excel/prop.xlsx
+++ b/Source/Excel/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BC2EB-B97C-4DA1-A921-D8BD402B204A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E09CE-86B4-4293-B386-B31B2191F413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,14 +706,14 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="1">
-        <v>10001</v>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -732,14 +732,14 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="1">
-        <v>10002</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -758,14 +758,14 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="1">
-        <v>10003</v>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -784,14 +784,14 @@
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="1">
-        <v>10004</v>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -810,14 +810,14 @@
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="1">
-        <v>10005</v>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -836,14 +836,14 @@
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="1">
-        <v>10006</v>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -862,14 +862,14 @@
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="1">
-        <v>10007</v>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -888,14 +888,14 @@
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="1">
-        <v>10008</v>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -914,14 +914,14 @@
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="1">
-        <v>10009</v>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -940,14 +940,14 @@
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="1">
-        <v>10010</v>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -966,14 +966,14 @@
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="1">
-        <v>10011</v>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -992,14 +992,14 @@
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="1">
-        <v>10012</v>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1018,14 +1018,14 @@
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="1">
-        <v>10013</v>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1044,14 +1044,14 @@
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="1">
-        <v>10014</v>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1070,14 +1070,14 @@
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="1">
-        <v>10015</v>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1096,14 +1096,14 @@
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="1">
-        <v>10016</v>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1122,14 +1122,14 @@
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="1">
-        <v>10017</v>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1148,14 +1148,14 @@
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="1">
-        <v>10018</v>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1174,14 +1174,14 @@
       <c r="A24" s="1">
         <v>10019</v>
       </c>
-      <c r="B24" s="1">
-        <v>10019</v>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>

--- a/Source/Excel/prop.xlsx
+++ b/Source/Excel/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E09CE-86B4-4293-B386-B31B2191F413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD444BE-8D6A-460D-B987-D6586886B2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金本位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值基本单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,39 +716,39 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>10001</v>
+        <v>99999</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>-1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -751,18 +763,18 @@
         <v>-1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -777,18 +789,18 @@
         <v>-1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -808,13 +820,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -829,18 +841,18 @@
         <v>-1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -855,18 +867,18 @@
         <v>-1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -886,13 +898,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -907,18 +919,18 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -933,18 +945,18 @@
         <v>-1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -964,13 +976,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -990,13 +1002,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1016,13 +1028,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1042,13 +1054,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1068,13 +1080,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1094,13 +1106,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1120,13 +1132,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1146,13 +1158,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1172,27 +1184,53 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>10019</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>100</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Source/Excel/prop.xlsx
+++ b/Source/Excel/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD444BE-8D6A-460D-B987-D6586886B2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15906B-F2F9-43E1-9BC4-FF1651FA724D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,107 +90,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>代币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背带裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超短裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊带裙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polo衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T恤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔腿裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超短裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衬衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency_diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency_coin_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency_coin_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背带裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超短裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛仔裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半身裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连体裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊带裙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polo衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T恤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阔腿裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超短裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金本位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值基本单位</t>
+    <t>货币基本单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +244,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,6 +268,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -272,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +302,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,14 +592,14 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
@@ -612,7 +636,7 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -636,108 +660,108 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>100</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="4">
+        <v>10202</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>102</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="4">
+        <v>10201</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10203</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>99999</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -745,10 +769,10 @@
         <v>10001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -771,10 +795,10 @@
         <v>10002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -823,10 +847,10 @@
         <v>10004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -849,10 +873,10 @@
         <v>10005</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -875,10 +899,10 @@
         <v>10006</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -901,10 +925,10 @@
         <v>10007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -927,10 +951,10 @@
         <v>10008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -953,10 +977,10 @@
         <v>10009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -979,10 +1003,10 @@
         <v>10010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1005,10 +1029,10 @@
         <v>10011</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1031,10 +1055,10 @@
         <v>10012</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1057,10 +1081,10 @@
         <v>10013</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1109,10 +1133,10 @@
         <v>10015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1135,10 +1159,10 @@
         <v>10016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1187,10 +1211,10 @@
         <v>10018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1213,10 +1237,10 @@
         <v>10019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>

--- a/Source/Excel/prop.xlsx
+++ b/Source/Excel/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15906B-F2F9-43E1-9BC4-FF1651FA724D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE981D-C7A7-4478-BABE-34A3EF024F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,38 @@
   </si>
   <si>
     <t>货币基本单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,171 +666,171 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>100</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>101</v>
-      </c>
-      <c r="B4" s="4">
-        <v>10202</v>
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>-1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4">
-        <v>10201</v>
+        <v>10202</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <v>-1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10201</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>103</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>10203</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -813,18 +845,18 @@
         <v>-1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -839,18 +871,18 @@
         <v>-1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -870,13 +902,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -891,18 +923,18 @@
         <v>-1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -917,18 +949,18 @@
         <v>-1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -948,13 +980,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -969,18 +1001,18 @@
         <v>-1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -995,18 +1027,18 @@
         <v>-1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1026,13 +1058,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1052,13 +1084,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1078,13 +1110,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1104,13 +1136,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1130,13 +1162,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>10015</v>
+        <v>10014</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1156,13 +1188,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>10016</v>
+        <v>10015</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1182,13 +1214,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>10017</v>
+        <v>10016</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1208,13 +1240,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -1234,27 +1266,53 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>10019</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>100</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Source/Excel/prop.xlsx
+++ b/Source/Excel/prop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE981D-C7A7-4478-BABE-34A3EF024F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F30DA5F-368A-478D-AE09-6192D45E4B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,13 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>休闲裤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +212,18 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,18 +625,18 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -648,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -660,62 +661,62 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -723,13 +724,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -737,11 +738,11 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
-        <v>-1</v>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -751,11 +752,11 @@
       <c r="B5" s="4">
         <v>10202</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -763,11 +764,11 @@
       <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
-        <v>-1</v>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -777,23 +778,23 @@
       <c r="B6" s="4">
         <v>10201</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -803,11 +804,11 @@
       <c r="B7" s="4">
         <v>10203</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
@@ -815,11 +816,11 @@
       <c r="F7" s="4">
         <v>50</v>
       </c>
-      <c r="G7" s="4">
-        <v>-1</v>
+      <c r="G7" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -827,13 +828,13 @@
         <v>10001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -841,11 +842,11 @@
       <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
-        <v>-1</v>
+      <c r="G8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -853,13 +854,13 @@
         <v>10002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -867,11 +868,11 @@
       <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="1">
-        <v>-1</v>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -879,13 +880,13 @@
         <v>10003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -893,8 +894,8 @@
       <c r="F10" s="1">
         <v>100</v>
       </c>
-      <c r="G10" s="1">
-        <v>-1</v>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
@@ -905,13 +906,13 @@
         <v>10004</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -919,11 +920,11 @@
       <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1">
-        <v>-1</v>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -931,13 +932,13 @@
         <v>10005</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -945,11 +946,11 @@
       <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="G12" s="1">
-        <v>-1</v>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,13 +958,13 @@
         <v>10006</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -971,11 +972,11 @@
       <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="1">
-        <v>-1</v>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -983,13 +984,13 @@
         <v>10007</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -997,11 +998,11 @@
       <c r="F14" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="1">
-        <v>-1</v>
+      <c r="G14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,13 +1010,13 @@
         <v>10008</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1023,11 +1024,11 @@
       <c r="F15" s="1">
         <v>100</v>
       </c>
-      <c r="G15" s="1">
-        <v>-1</v>
+      <c r="G15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,13 +1036,13 @@
         <v>10009</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1049,11 +1050,11 @@
       <c r="F16" s="1">
         <v>100</v>
       </c>
-      <c r="G16" s="1">
-        <v>-1</v>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1061,13 +1062,13 @@
         <v>10010</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1075,11 +1076,11 @@
       <c r="F17" s="1">
         <v>100</v>
       </c>
-      <c r="G17" s="1">
-        <v>-1</v>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1087,13 +1088,13 @@
         <v>10011</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1101,11 +1102,11 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="1">
-        <v>-1</v>
+      <c r="G18" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1113,13 +1114,13 @@
         <v>10012</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1127,11 +1128,11 @@
       <c r="F19" s="1">
         <v>100</v>
       </c>
-      <c r="G19" s="1">
-        <v>-1</v>
+      <c r="G19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,13 +1140,13 @@
         <v>10013</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1153,11 +1154,11 @@
       <c r="F20" s="1">
         <v>100</v>
       </c>
-      <c r="G20" s="1">
-        <v>-1</v>
+      <c r="G20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,13 +1166,13 @@
         <v>10014</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1179,11 +1180,11 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="1">
-        <v>-1</v>
+      <c r="G21" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,13 +1192,13 @@
         <v>10015</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1205,11 +1206,11 @@
       <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="G22" s="1">
-        <v>-1</v>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1217,13 +1218,13 @@
         <v>10016</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1231,11 +1232,11 @@
       <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="1">
-        <v>-1</v>
+      <c r="G23" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1243,13 +1244,13 @@
         <v>10017</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1257,11 +1258,11 @@
       <c r="F24" s="1">
         <v>100</v>
       </c>
-      <c r="G24" s="1">
-        <v>-1</v>
+      <c r="G24" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1269,13 +1270,13 @@
         <v>10018</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1283,11 +1284,11 @@
       <c r="F25" s="1">
         <v>100</v>
       </c>
-      <c r="G25" s="1">
-        <v>-1</v>
+      <c r="G25" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1295,13 +1296,13 @@
         <v>10019</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1309,11 +1310,11 @@
       <c r="F26" s="1">
         <v>100</v>
       </c>
-      <c r="G26" s="1">
-        <v>-1</v>
+      <c r="G26" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
